--- a/ArrayGHG-Data-Raw/Soil-data-LeileiWhendee/Fe and pH data.xlsx
+++ b/ArrayGHG-Data-Raw/Soil-data-LeileiWhendee/Fe and pH data.xlsx
@@ -1,19 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="25725"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="26812"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christine/Documents/GITHUB/cso040code_ArrayGHG/ArrayGHG-Data-Raw/Soil-data-LeileiWhendee/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3260" yWindow="4260" windowWidth="25600" windowHeight="14420"/>
+    <workbookView xWindow="0" yWindow="660" windowWidth="25600" windowHeight="14420" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Fe" sheetId="2" r:id="rId1"/>
-    <sheet name="pH" sheetId="3" r:id="rId2"/>
+    <sheet name="CSO reformatting Fe for ease" sheetId="4" r:id="rId2"/>
+    <sheet name="pH" sheetId="3" r:id="rId3"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId3"/>
+    <externalReference r:id="rId4"/>
   </externalReferences>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -23,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="14">
   <si>
     <t>Ridge</t>
   </si>
@@ -56,6 +62,15 @@
   </si>
   <si>
     <t>HCl extractions</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Replicate</t>
+  </si>
+  <si>
+    <t>Depth</t>
   </si>
 </sst>
 </file>
@@ -101,7 +116,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -148,6 +163,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -167,7 +188,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -183,6 +204,7 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -195,6 +217,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -438,16 +465,17 @@
         </c:dLbls>
         <c:gapWidth val="390"/>
         <c:overlap val="-5"/>
-        <c:axId val="2138549304"/>
-        <c:axId val="2138233176"/>
+        <c:axId val="-2049965904"/>
+        <c:axId val="-2028789472"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2138549304"/>
+        <c:axId val="-2049965904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -461,7 +489,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2138233176"/>
+        <c:crossAx val="-2028789472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -469,7 +497,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2138233176"/>
+        <c:axId val="-2028789472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -508,7 +536,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2138549304"/>
+        <c:crossAx val="-2049965904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="5.0"/>
@@ -790,16 +818,17 @@
         </c:dLbls>
         <c:gapWidth val="393"/>
         <c:overlap val="-6"/>
-        <c:axId val="2093835448"/>
-        <c:axId val="2093838456"/>
+        <c:axId val="-2113010624"/>
+        <c:axId val="-2028476544"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2093835448"/>
+        <c:axId val="-2113010624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -813,7 +842,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2093838456"/>
+        <c:crossAx val="-2028476544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -821,7 +850,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2093838456"/>
+        <c:axId val="-2028476544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -861,7 +890,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2093835448"/>
+        <c:crossAx val="-2113010624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.5"/>
@@ -919,6 +948,713 @@
   <c:chart>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.152966679798509"/>
+          <c:y val="0.0427889373047783"/>
+          <c:w val="0.796456140294718"/>
+          <c:h val="0.832046699365853"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Fe!$J$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0-15</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="65000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Fe!$K$15:$M$15</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>0.00933866260677948</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.00834575047728957</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1.528596732986056</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Fe!$K$15:$M$15</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>0.00933866260677948</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.00834575047728957</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1.528596732986056</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>Fe!$K$9:$M$9</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Ridge</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Slope</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Valley</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Fe!$K$10:$M$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.05342305295299</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0476974178479101</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14.93614272593606</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Fe!$J$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>15-30</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Fe!$K$16:$M$16</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>0.00399651167678005</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.00668948688502741</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2.467491360837465</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Fe!$K$16:$M$16</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>0.00399651167678005</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.00668948688502741</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2.467491360837465</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>Fe!$K$9:$M$9</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Ridge</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Slope</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Valley</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Fe!$K$11:$M$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.0146164913604281</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0248323976141459</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13.00401665361103</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="390"/>
+        <c:overlap val="-5"/>
+        <c:axId val="-2115102128"/>
+        <c:axId val="-2115301744"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-2115102128"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2115301744"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2115301744"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" b="0"/>
+                  <a:t>Fe(II) mg/g</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2115102128"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="5.0"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.192223190406606"/>
+          <c:y val="0.0201651386781926"/>
+          <c:w val="0.156938242767446"/>
+          <c:h val="0.176658753354408"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.148756419038974"/>
+          <c:y val="0.0377491441640785"/>
+          <c:w val="0.791543475245532"/>
+          <c:h val="0.851828679144055"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Fe!$J$32</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0-15</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="65000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Fe!$K$37:$M$37</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>0.0839262584241235</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.183445520247952</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.292225849968988</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Fe!$K$37:$M$37</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>0.0839262584241235</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.183445520247952</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.292225849968988</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>Fe!$K$31:$M$31</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Ridge</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Slope</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Valley</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Fe!$K$32:$M$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.960772679985294</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.044807981797397</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.328131907472802</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Fe!$J$33</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>15-30</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Fe!$K$38:$M$38</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>0.0667628187983015</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.127539705747287</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.275714487278428</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Fe!$K$38:$M$38</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>0.0667628187983015</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.127539705747287</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.275714487278428</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>Fe!$K$31:$M$31</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Ridge</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Slope</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Valley</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Fe!$K$33:$M$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.344971789476242</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.564996583946749</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.45046151434053</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="393"/>
+        <c:overlap val="-6"/>
+        <c:axId val="-2052507888"/>
+        <c:axId val="-2015801248"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-2052507888"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2015801248"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2015801248"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" b="0" i="0" baseline="0"/>
+                  <a:t>Fe(III) mg/g</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1400"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2052507888"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="0.5"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.215486891282941"/>
+          <c:y val="0.0176876761932536"/>
+          <c:w val="0.157037378695864"/>
+          <c:h val="0.176843953533586"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
@@ -993,13 +1729,13 @@
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>_x0005_Ridge</c:v>
+                  <c:v>Ridge</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>_x0005_Slope</c:v>
+                  <c:v>Slope</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>_x0006_Valley</c:v>
+                  <c:v>Valley</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1093,13 +1829,13 @@
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>_x0005_Ridge</c:v>
+                  <c:v>Ridge</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>_x0005_Slope</c:v>
+                  <c:v>Slope</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>_x0006_Valley</c:v>
+                  <c:v>Valley</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1133,16 +1869,17 @@
         </c:dLbls>
         <c:gapWidth val="393"/>
         <c:overlap val="-6"/>
-        <c:axId val="2133903560"/>
-        <c:axId val="2138524216"/>
+        <c:axId val="-2049439920"/>
+        <c:axId val="-2047381760"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2133903560"/>
+        <c:axId val="-2049439920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1156,7 +1893,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2138524216"/>
+        <c:crossAx val="-2047381760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1164,7 +1901,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2138524216"/>
+        <c:axId val="-2047381760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1210,7 +1947,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2133903560"/>
+        <c:crossAx val="-2049439920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1301,6 +2038,75 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>541786</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>91774</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>608642</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>122925</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>138022</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>146649</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>161140</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>177704</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>301923</xdr:colOff>
       <xdr:row>3</xdr:row>
@@ -1333,7 +2139,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="pH"/>
@@ -1696,23 +2502,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:M42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J3" workbookViewId="0">
-      <selection activeCell="Q8" sqref="Q8"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="12" max="12" width="12" customWidth="1"/>
     <col min="13" max="13" width="16.5" customWidth="1"/>
     <col min="14" max="14" width="14.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="2:13" ht="56">
+    <row r="3" spans="2:13" ht="60" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
@@ -1720,7 +2526,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:13">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.2">
       <c r="E4" t="s">
         <v>0</v>
       </c>
@@ -1731,7 +2537,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:13">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.2">
       <c r="D5" s="2" t="s">
         <v>3</v>
       </c>
@@ -1745,7 +2551,7 @@
         <v>13.769240734001199</v>
       </c>
     </row>
-    <row r="6" spans="2:13">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.2">
       <c r="D6" s="2" t="s">
         <v>3</v>
       </c>
@@ -1759,7 +2565,7 @@
         <v>15.034914913558207</v>
       </c>
     </row>
-    <row r="7" spans="2:13">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.2">
       <c r="D7" s="2" t="s">
         <v>3</v>
       </c>
@@ -1776,7 +2582,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="2:13">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.2">
       <c r="D8" s="2" t="s">
         <v>3</v>
       </c>
@@ -1790,7 +2596,7 @@
         <v>9.5985607150895511</v>
       </c>
     </row>
-    <row r="9" spans="2:13">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.2">
       <c r="D9" s="2" t="s">
         <v>3</v>
       </c>
@@ -1813,7 +2619,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="2:13">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.2">
       <c r="D10" s="2" t="s">
         <v>3</v>
       </c>
@@ -1842,7 +2648,7 @@
         <v>14.936142725936056</v>
       </c>
     </row>
-    <row r="11" spans="2:13">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.2">
       <c r="J11" s="3" t="s">
         <v>4</v>
       </c>
@@ -1859,7 +2665,7 @@
         <v>13.004016653611032</v>
       </c>
     </row>
-    <row r="14" spans="2:13">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.2">
       <c r="E14" t="s">
         <v>0</v>
       </c>
@@ -1879,7 +2685,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="2:13">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.2">
       <c r="D15" s="3" t="s">
         <v>4</v>
       </c>
@@ -1908,7 +2714,7 @@
         <v>1.5285967329860557</v>
       </c>
     </row>
-    <row r="16" spans="2:13">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3" t="s">
         <v>4</v>
       </c>
@@ -1937,7 +2743,7 @@
         <v>2.4674913608374656</v>
       </c>
     </row>
-    <row r="17" spans="2:13">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.2">
       <c r="D17" s="3" t="s">
         <v>4</v>
       </c>
@@ -1951,7 +2757,7 @@
         <v>16.480523046593444</v>
       </c>
     </row>
-    <row r="18" spans="2:13">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.2">
       <c r="D18" s="3" t="s">
         <v>4</v>
       </c>
@@ -1965,7 +2771,7 @@
         <v>1.3122744620770086</v>
       </c>
     </row>
-    <row r="19" spans="2:13">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.2">
       <c r="D19" s="3" t="s">
         <v>4</v>
       </c>
@@ -1979,7 +2785,7 @@
         <v>18.616493176003711</v>
       </c>
     </row>
-    <row r="20" spans="2:13">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.2">
       <c r="D20" s="3" t="s">
         <v>4</v>
       </c>
@@ -1993,7 +2799,7 @@
         <v>13.956407340198247</v>
       </c>
     </row>
-    <row r="23" spans="2:13" ht="56">
+    <row r="23" spans="2:13" ht="60" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s">
         <v>6</v>
       </c>
@@ -2001,7 +2807,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="2:13">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.2">
       <c r="E26" t="s">
         <v>0</v>
       </c>
@@ -2012,7 +2818,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="2:13">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.2">
       <c r="D27" s="2" t="s">
         <v>3</v>
       </c>
@@ -2026,7 +2832,7 @@
         <v>1.1079822154996928</v>
       </c>
     </row>
-    <row r="28" spans="2:13">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.2">
       <c r="D28" s="2" t="s">
         <v>3</v>
       </c>
@@ -2043,7 +2849,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="2:13">
+    <row r="29" spans="2:13" x14ac:dyDescent="0.2">
       <c r="D29" s="2" t="s">
         <v>3</v>
       </c>
@@ -2057,7 +2863,7 @@
         <v>2.4229822609641034</v>
       </c>
     </row>
-    <row r="30" spans="2:13">
+    <row r="30" spans="2:13" x14ac:dyDescent="0.2">
       <c r="D30" s="2" t="s">
         <v>3</v>
       </c>
@@ -2071,7 +2877,7 @@
         <v>1.9342283710634964</v>
       </c>
     </row>
-    <row r="31" spans="2:13">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.2">
       <c r="D31" s="2" t="s">
         <v>3</v>
       </c>
@@ -2094,7 +2900,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="2:13">
+    <row r="32" spans="2:13" x14ac:dyDescent="0.2">
       <c r="D32" s="2" t="s">
         <v>3</v>
       </c>
@@ -2123,7 +2929,7 @@
         <v>1.3281319074728024</v>
       </c>
     </row>
-    <row r="33" spans="4:13">
+    <row r="33" spans="4:13" x14ac:dyDescent="0.2">
       <c r="J33" s="3" t="s">
         <v>4</v>
       </c>
@@ -2140,7 +2946,7 @@
         <v>1.4504615143405299</v>
       </c>
     </row>
-    <row r="36" spans="4:13">
+    <row r="36" spans="4:13" x14ac:dyDescent="0.2">
       <c r="E36" t="s">
         <v>0</v>
       </c>
@@ -2160,7 +2966,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="4:13">
+    <row r="37" spans="4:13" x14ac:dyDescent="0.2">
       <c r="D37" s="3" t="s">
         <v>4</v>
       </c>
@@ -2189,7 +2995,7 @@
         <v>0.29222584996898793</v>
       </c>
     </row>
-    <row r="38" spans="4:13">
+    <row r="38" spans="4:13" x14ac:dyDescent="0.2">
       <c r="D38" s="3" t="s">
         <v>4</v>
       </c>
@@ -2218,7 +3024,7 @@
         <v>0.27571448727842812</v>
       </c>
     </row>
-    <row r="39" spans="4:13">
+    <row r="39" spans="4:13" x14ac:dyDescent="0.2">
       <c r="D39" s="3" t="s">
         <v>4</v>
       </c>
@@ -2232,7 +3038,7 @@
         <v>0.5420297622288347</v>
       </c>
     </row>
-    <row r="40" spans="4:13">
+    <row r="40" spans="4:13" x14ac:dyDescent="0.2">
       <c r="D40" s="3" t="s">
         <v>4</v>
       </c>
@@ -2246,7 +3052,7 @@
         <v>2.3766667060938218</v>
       </c>
     </row>
-    <row r="41" spans="4:13">
+    <row r="41" spans="4:13" x14ac:dyDescent="0.2">
       <c r="D41" s="3" t="s">
         <v>4</v>
       </c>
@@ -2260,7 +3066,7 @@
         <v>1.1184898309341131</v>
       </c>
     </row>
-    <row r="42" spans="4:13">
+    <row r="42" spans="4:13" x14ac:dyDescent="0.2">
       <c r="D42" s="3" t="s">
         <v>4</v>
       </c>
@@ -2278,35 +3084,1171 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:R42"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="M4" sqref="I4:M40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="17" max="17" width="12" customWidth="1"/>
+    <col min="18" max="18" width="16.5" customWidth="1"/>
+    <col min="19" max="19" width="14.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="2:18" ht="60" x14ac:dyDescent="0.2">
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="2:18" ht="60" x14ac:dyDescent="0.2">
+      <c r="E4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
+        <v>2</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="D5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="4">
+        <v>3.6119026390806649E-2</v>
+      </c>
+      <c r="G5" s="7">
+        <v>13.769240734001199</v>
+      </c>
+      <c r="I5" t="s">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L5" s="5">
+        <v>4.1886585172357889E-2</v>
+      </c>
+      <c r="M5" s="5">
+        <v>1.0573724591460709</v>
+      </c>
+    </row>
+    <row r="6" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="D6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="4">
+        <v>8.3645027766635446E-2</v>
+      </c>
+      <c r="G6" s="7">
+        <v>15.034914913558207</v>
+      </c>
+      <c r="I6" t="s">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>2</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L6" s="5">
+        <v>8.2887197310720043E-2</v>
+      </c>
+      <c r="M6" s="5">
+        <v>0.84167357714057078</v>
+      </c>
+    </row>
+    <row r="7" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="D7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" s="4">
+        <v>4.8472789543654242E-2</v>
+      </c>
+      <c r="G7" s="7">
+        <v>18.90809663595066</v>
+      </c>
+      <c r="I7" t="s">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>3</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L7" s="5">
+        <v>7.0680179028505014E-2</v>
+      </c>
+      <c r="M7" s="5">
+        <v>1.0737378847525392</v>
+      </c>
+      <c r="O7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="D8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="4">
+        <v>4.0951693364560088E-2</v>
+      </c>
+      <c r="G8" s="7">
+        <v>9.5985607150895511</v>
+      </c>
+      <c r="I8" t="s">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>4</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="5">
+        <v>6.6234309616762257E-2</v>
+      </c>
+      <c r="M8" s="5">
+        <v>1.2159952490189148</v>
+      </c>
+    </row>
+    <row r="9" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="D9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F9" s="4">
+        <v>2.3533166365901255E-2</v>
+      </c>
+      <c r="G9" s="7">
+        <v>19.43166732898819</v>
+      </c>
+      <c r="I9" t="s">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>5</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L9" s="5">
+        <v>3.0245125199711363E-2</v>
+      </c>
+      <c r="M9" s="5">
+        <v>0.94626739905541413</v>
+      </c>
+      <c r="P9" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>1</v>
+      </c>
+      <c r="R9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="D10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F10" s="4">
+        <v>5.3462803655903009E-2</v>
+      </c>
+      <c r="G10" s="7">
+        <v>12.87437602802853</v>
+      </c>
+      <c r="I10" t="s">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>6</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L10" s="5">
+        <v>2.8604921389883728E-2</v>
+      </c>
+      <c r="M10" s="5">
+        <v>0.62958951079825209</v>
+      </c>
+      <c r="O10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P10">
+        <f>AVERAGE(L5:L10)</f>
+        <v>5.3423052952990047E-2</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" ref="Q10:R10" si="0">AVERAGE(F5:F10)</f>
+        <v>4.7697417847910116E-2</v>
+      </c>
+      <c r="R10">
+        <f t="shared" si="0"/>
+        <v>14.936142725936056</v>
+      </c>
+    </row>
+    <row r="11" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="I11" t="s">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L11" s="4">
+        <v>3.6119026390806649E-2</v>
+      </c>
+      <c r="M11" s="4">
+        <v>1.1744284791482207</v>
+      </c>
+      <c r="O11" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P11">
+        <f>AVERAGE(E15:E20)</f>
+        <v>1.4616491360428072E-2</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" ref="Q11:R11" si="1">AVERAGE(F15:F20)</f>
+        <v>2.4832397614145869E-2</v>
+      </c>
+      <c r="R11">
+        <f t="shared" si="1"/>
+        <v>13.004016653611032</v>
+      </c>
+    </row>
+    <row r="12" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="I12" t="s">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>2</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L12" s="4">
+        <v>8.3645027766635446E-2</v>
+      </c>
+      <c r="M12" s="4">
+        <v>1.8310291899703097</v>
+      </c>
+    </row>
+    <row r="13" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="I13" t="s">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>3</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L13" s="4">
+        <v>4.8472789543654242E-2</v>
+      </c>
+      <c r="M13" s="4">
+        <v>0.83851255616346987</v>
+      </c>
+    </row>
+    <row r="14" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="E14" t="s">
+        <v>0</v>
+      </c>
+      <c r="F14" t="s">
+        <v>1</v>
+      </c>
+      <c r="G14" t="s">
+        <v>2</v>
+      </c>
+      <c r="I14" t="s">
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <v>4</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L14" s="4">
+        <v>4.0951693364560088E-2</v>
+      </c>
+      <c r="M14" s="4">
+        <v>0.68024628559263889</v>
+      </c>
+      <c r="P14" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>1</v>
+      </c>
+      <c r="R14" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="D15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E15" s="7">
+        <v>1.5279143923514118E-2</v>
+      </c>
+      <c r="F15" s="6">
+        <v>1.5259289818596295E-2</v>
+      </c>
+      <c r="G15" s="8">
+        <v>14.056882003220803</v>
+      </c>
+      <c r="I15" t="s">
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <v>5</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L15" s="4">
+        <v>2.3533166365901255E-2</v>
+      </c>
+      <c r="M15" s="4">
+        <v>0.60806931723657542</v>
+      </c>
+      <c r="O15" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P15">
+        <f>STDEV(L5:L10)/SQRT(6)</f>
+        <v>9.3386626067794871E-3</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" ref="Q15:R15" si="2">STDEV(F5:F10)/SQRT(6)</f>
+        <v>8.345750477289568E-3</v>
+      </c>
+      <c r="R15">
+        <f t="shared" si="2"/>
+        <v>1.5285967329860557</v>
+      </c>
+    </row>
+    <row r="16" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="D16" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E16" s="7">
+        <v>1.1404860856952961E-2</v>
+      </c>
+      <c r="F16" s="6">
+        <v>3.0311668981485917E-2</v>
+      </c>
+      <c r="G16" s="8">
+        <v>13.60151989357299</v>
+      </c>
+      <c r="I16" t="s">
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <v>6</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L16" s="4">
+        <v>5.3462803655903009E-2</v>
+      </c>
+      <c r="M16" s="4">
+        <v>1.1365620626731663</v>
+      </c>
+      <c r="O16" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P16">
+        <f>STDEV(E15:E20)/SQRT(6)</f>
+        <v>3.9965116767800507E-3</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" ref="Q16:R16" si="3">STDEV(F15:F20)/SQRT(6)</f>
+        <v>6.6894868850274096E-3</v>
+      </c>
+      <c r="R16">
+        <f t="shared" si="3"/>
+        <v>2.4674913608374656</v>
+      </c>
+    </row>
+    <row r="17" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="D17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E17" s="7">
+        <v>1.4614716286767386E-2</v>
+      </c>
+      <c r="F17" s="6">
+        <v>1.2948489945083474E-2</v>
+      </c>
+      <c r="G17" s="8">
+        <v>16.480523046593444</v>
+      </c>
+      <c r="I17" t="s">
+        <v>2</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L17" s="7">
+        <v>13.769240734001199</v>
+      </c>
+      <c r="M17" s="7">
+        <v>1.1079822154996928</v>
+      </c>
+    </row>
+    <row r="18" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="D18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E18" s="7">
+        <v>3.3076408319591084E-2</v>
+      </c>
+      <c r="F18" s="6">
+        <v>2.0502128052276167E-2</v>
+      </c>
+      <c r="G18" s="8">
+        <v>1.3122744620770086</v>
+      </c>
+      <c r="I18" t="s">
+        <v>2</v>
+      </c>
+      <c r="J18">
+        <v>2</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L18" s="7">
+        <v>15.034914913558207</v>
+      </c>
+      <c r="M18" s="7">
+        <v>0.46246660219111763</v>
+      </c>
+    </row>
+    <row r="19" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="D19" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E19" s="7">
+        <v>7.4002191340608045E-3</v>
+      </c>
+      <c r="F19" s="6">
+        <v>1.4314877763144112E-2</v>
+      </c>
+      <c r="G19" s="8">
+        <v>18.616493176003711</v>
+      </c>
+      <c r="I19" t="s">
+        <v>2</v>
+      </c>
+      <c r="J19">
+        <v>3</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L19" s="7">
+        <v>18.90809663595066</v>
+      </c>
+      <c r="M19" s="7">
+        <v>2.4229822609641034</v>
+      </c>
+    </row>
+    <row r="20" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="D20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E20" s="7">
+        <v>5.9235996416820676E-3</v>
+      </c>
+      <c r="F20" s="6">
+        <v>5.5657931124289274E-2</v>
+      </c>
+      <c r="G20" s="8">
+        <v>13.956407340198247</v>
+      </c>
+      <c r="I20" t="s">
+        <v>2</v>
+      </c>
+      <c r="J20">
+        <v>4</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L20" s="7">
+        <v>9.5985607150895511</v>
+      </c>
+      <c r="M20" s="7">
+        <v>1.9342283710634964</v>
+      </c>
+    </row>
+    <row r="21" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="I21" t="s">
+        <v>2</v>
+      </c>
+      <c r="J21">
+        <v>5</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L21" s="7">
+        <v>19.43166732898819</v>
+      </c>
+      <c r="M21" s="7">
+        <v>1.0868695286095957</v>
+      </c>
+    </row>
+    <row r="22" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="I22" t="s">
+        <v>2</v>
+      </c>
+      <c r="J22">
+        <v>6</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L22" s="7">
+        <v>12.87437602802853</v>
+      </c>
+      <c r="M22" s="7">
+        <v>0.95426246650880908</v>
+      </c>
+    </row>
+    <row r="23" spans="2:18" ht="60" x14ac:dyDescent="0.2">
+      <c r="B23" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I23" t="s">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>1</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L23" s="7">
+        <v>1.5279143923514118E-2</v>
+      </c>
+      <c r="M23" s="7">
+        <v>0.5933362891709838</v>
+      </c>
+      <c r="O23" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="I24" t="s">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>2</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L24" s="7">
+        <v>1.1404860856952961E-2</v>
+      </c>
+      <c r="M24" s="7">
+        <v>0.19922686318743194</v>
+      </c>
+    </row>
+    <row r="25" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="I25" t="s">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>3</v>
+      </c>
+      <c r="K25" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L25" s="7">
+        <v>1.4614716286767386E-2</v>
+      </c>
+      <c r="M25" s="7">
+        <v>0.31889766136460213</v>
+      </c>
+    </row>
+    <row r="26" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="E26" t="s">
+        <v>0</v>
+      </c>
+      <c r="F26" t="s">
+        <v>1</v>
+      </c>
+      <c r="G26" t="s">
+        <v>2</v>
+      </c>
+      <c r="I26" t="s">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>4</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L26" s="7">
+        <v>3.3076408319591084E-2</v>
+      </c>
+      <c r="M26" s="7">
+        <v>0.49683954716668571</v>
+      </c>
+    </row>
+    <row r="27" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="D27" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27" s="5">
+        <v>1.0573724591460709</v>
+      </c>
+      <c r="F27" s="4">
+        <v>1.1744284791482207</v>
+      </c>
+      <c r="G27" s="7">
+        <v>1.1079822154996928</v>
+      </c>
+      <c r="I27" t="s">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>5</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L27" s="7">
+        <v>7.4002191340608045E-3</v>
+      </c>
+      <c r="M27" s="7">
+        <v>0.20883644727999001</v>
+      </c>
+    </row>
+    <row r="28" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="D28" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E28" s="5">
+        <v>0.84167357714057078</v>
+      </c>
+      <c r="F28" s="4">
+        <v>1.8310291899703097</v>
+      </c>
+      <c r="G28" s="7">
+        <v>0.46246660219111763</v>
+      </c>
+      <c r="I28" t="s">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>6</v>
+      </c>
+      <c r="K28" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L28" s="7">
+        <v>5.9235996416820676E-3</v>
+      </c>
+      <c r="M28" s="7">
+        <v>0.25269392868775853</v>
+      </c>
+      <c r="O28" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="D29" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E29" s="5">
+        <v>1.0737378847525392</v>
+      </c>
+      <c r="F29" s="4">
+        <v>0.83851255616346987</v>
+      </c>
+      <c r="G29" s="7">
+        <v>2.4229822609641034</v>
+      </c>
+      <c r="I29" t="s">
+        <v>1</v>
+      </c>
+      <c r="J29">
+        <v>1</v>
+      </c>
+      <c r="K29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L29" s="6">
+        <v>1.5259289818596295E-2</v>
+      </c>
+      <c r="M29" s="6">
+        <v>0.44149408857704958</v>
+      </c>
+    </row>
+    <row r="30" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="D30" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E30" s="5">
+        <v>1.2159952490189148</v>
+      </c>
+      <c r="F30" s="4">
+        <v>0.68024628559263889</v>
+      </c>
+      <c r="G30" s="7">
+        <v>1.9342283710634964</v>
+      </c>
+      <c r="I30" t="s">
+        <v>1</v>
+      </c>
+      <c r="J30">
+        <v>2</v>
+      </c>
+      <c r="K30" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L30" s="6">
+        <v>3.0311668981485917E-2</v>
+      </c>
+      <c r="M30" s="6">
+        <v>0.83232877859349264</v>
+      </c>
+    </row>
+    <row r="31" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="D31" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E31" s="5">
+        <v>0.94626739905541413</v>
+      </c>
+      <c r="F31" s="4">
+        <v>0.60806931723657542</v>
+      </c>
+      <c r="G31" s="7">
+        <v>1.0868695286095957</v>
+      </c>
+      <c r="I31" t="s">
+        <v>1</v>
+      </c>
+      <c r="J31">
+        <v>3</v>
+      </c>
+      <c r="K31" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L31" s="6">
+        <v>1.2948489945083474E-2</v>
+      </c>
+      <c r="M31" s="6">
+        <v>0.34637457900461632</v>
+      </c>
+      <c r="P31" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>1</v>
+      </c>
+      <c r="R31" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="D32" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E32" s="5">
+        <v>0.62958951079825209</v>
+      </c>
+      <c r="F32" s="4">
+        <v>1.1365620626731663</v>
+      </c>
+      <c r="G32" s="7">
+        <v>0.95426246650880908</v>
+      </c>
+      <c r="I32" t="s">
+        <v>1</v>
+      </c>
+      <c r="J32">
+        <v>4</v>
+      </c>
+      <c r="K32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L32" s="6">
+        <v>2.0502128052276167E-2</v>
+      </c>
+      <c r="M32" s="6">
+        <v>0.41523160037824153</v>
+      </c>
+      <c r="O32" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P32">
+        <f>AVERAGE(E27:E32)</f>
+        <v>0.9607726799852937</v>
+      </c>
+      <c r="Q32">
+        <f t="shared" ref="Q32:R32" si="4">AVERAGE(F27:F32)</f>
+        <v>1.0448079817973968</v>
+      </c>
+      <c r="R32">
+        <f t="shared" si="4"/>
+        <v>1.3281319074728024</v>
+      </c>
+    </row>
+    <row r="33" spans="4:18" x14ac:dyDescent="0.2">
+      <c r="I33" t="s">
+        <v>1</v>
+      </c>
+      <c r="J33">
+        <v>5</v>
+      </c>
+      <c r="K33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L33" s="6">
+        <v>1.4314877763144112E-2</v>
+      </c>
+      <c r="M33" s="6">
+        <v>0.28622931809791574</v>
+      </c>
+      <c r="O33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P33">
+        <f>AVERAGE(E37:E42)</f>
+        <v>0.34497178947624202</v>
+      </c>
+      <c r="Q33">
+        <f t="shared" ref="Q33:R33" si="5">AVERAGE(F37:F42)</f>
+        <v>0.56499658394674857</v>
+      </c>
+      <c r="R33">
+        <f t="shared" si="5"/>
+        <v>1.4504615143405299</v>
+      </c>
+    </row>
+    <row r="34" spans="4:18" x14ac:dyDescent="0.2">
+      <c r="I34" t="s">
+        <v>1</v>
+      </c>
+      <c r="J34">
+        <v>6</v>
+      </c>
+      <c r="K34" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L34" s="6">
+        <v>5.5657931124289274E-2</v>
+      </c>
+      <c r="M34" s="6">
+        <v>1.0683211390291756</v>
+      </c>
+    </row>
+    <row r="35" spans="4:18" x14ac:dyDescent="0.2">
+      <c r="I35" t="s">
+        <v>2</v>
+      </c>
+      <c r="J35">
+        <v>1</v>
+      </c>
+      <c r="K35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L35" s="8">
+        <v>14.056882003220803</v>
+      </c>
+      <c r="M35" s="8">
+        <v>1.5540236654337034</v>
+      </c>
+    </row>
+    <row r="36" spans="4:18" x14ac:dyDescent="0.2">
+      <c r="E36" t="s">
+        <v>0</v>
+      </c>
+      <c r="F36" t="s">
+        <v>1</v>
+      </c>
+      <c r="G36" t="s">
+        <v>2</v>
+      </c>
+      <c r="I36" t="s">
+        <v>2</v>
+      </c>
+      <c r="J36">
+        <v>2</v>
+      </c>
+      <c r="K36" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L36" s="8">
+        <v>13.60151989357299</v>
+      </c>
+      <c r="M36" s="8">
+        <v>1.0791581438841635</v>
+      </c>
+      <c r="P36" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>1</v>
+      </c>
+      <c r="R36" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="4:18" x14ac:dyDescent="0.2">
+      <c r="D37" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E37" s="7">
+        <v>0.5933362891709838</v>
+      </c>
+      <c r="F37" s="6">
+        <v>0.44149408857704958</v>
+      </c>
+      <c r="G37" s="8">
+        <v>1.5540236654337034</v>
+      </c>
+      <c r="I37" t="s">
+        <v>2</v>
+      </c>
+      <c r="J37">
+        <v>3</v>
+      </c>
+      <c r="K37" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L37" s="8">
+        <v>16.480523046593444</v>
+      </c>
+      <c r="M37" s="8">
+        <v>0.5420297622288347</v>
+      </c>
+      <c r="O37" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P37">
+        <f>STDEV(E27:E32)/SQRT(6)</f>
+        <v>8.3926258424123559E-2</v>
+      </c>
+      <c r="Q37">
+        <f t="shared" ref="Q37:R37" si="6">STDEV(F27:F32)/SQRT(6)</f>
+        <v>0.1834455202479518</v>
+      </c>
+      <c r="R37">
+        <f t="shared" si="6"/>
+        <v>0.29222584996898793</v>
+      </c>
+    </row>
+    <row r="38" spans="4:18" x14ac:dyDescent="0.2">
+      <c r="D38" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E38" s="7">
+        <v>0.19922686318743194</v>
+      </c>
+      <c r="F38" s="6">
+        <v>0.83232877859349264</v>
+      </c>
+      <c r="G38" s="8">
+        <v>1.0791581438841635</v>
+      </c>
+      <c r="I38" t="s">
+        <v>2</v>
+      </c>
+      <c r="J38">
+        <v>4</v>
+      </c>
+      <c r="K38" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L38" s="8">
+        <v>1.3122744620770086</v>
+      </c>
+      <c r="M38" s="8">
+        <v>2.3766667060938218</v>
+      </c>
+      <c r="O38" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P38">
+        <f>STDEV(E37:E42)/SQRT(6)</f>
+        <v>6.6762818798301482E-2</v>
+      </c>
+      <c r="Q38">
+        <f t="shared" ref="Q38:R38" si="7">STDEV(F37:F42)/SQRT(6)</f>
+        <v>0.12753970574728707</v>
+      </c>
+      <c r="R38">
+        <f t="shared" si="7"/>
+        <v>0.27571448727842812</v>
+      </c>
+    </row>
+    <row r="39" spans="4:18" x14ac:dyDescent="0.2">
+      <c r="D39" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E39" s="7">
+        <v>0.31889766136460213</v>
+      </c>
+      <c r="F39" s="6">
+        <v>0.34637457900461632</v>
+      </c>
+      <c r="G39" s="8">
+        <v>0.5420297622288347</v>
+      </c>
+      <c r="I39" t="s">
+        <v>2</v>
+      </c>
+      <c r="J39">
+        <v>5</v>
+      </c>
+      <c r="K39" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L39" s="8">
+        <v>18.616493176003711</v>
+      </c>
+      <c r="M39" s="8">
+        <v>1.1184898309341131</v>
+      </c>
+    </row>
+    <row r="40" spans="4:18" x14ac:dyDescent="0.2">
+      <c r="D40" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E40" s="7">
+        <v>0.49683954716668571</v>
+      </c>
+      <c r="F40" s="6">
+        <v>0.41523160037824153</v>
+      </c>
+      <c r="G40" s="8">
+        <v>2.3766667060938218</v>
+      </c>
+      <c r="I40" t="s">
+        <v>2</v>
+      </c>
+      <c r="J40">
+        <v>6</v>
+      </c>
+      <c r="K40" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L40" s="8">
+        <v>13.956407340198247</v>
+      </c>
+      <c r="M40" s="8">
+        <v>2.0324009774685443</v>
+      </c>
+    </row>
+    <row r="41" spans="4:18" x14ac:dyDescent="0.2">
+      <c r="D41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E41" s="7">
+        <v>0.20883644727999001</v>
+      </c>
+      <c r="F41" s="6">
+        <v>0.28622931809791574</v>
+      </c>
+      <c r="G41" s="8">
+        <v>1.1184898309341131</v>
+      </c>
+    </row>
+    <row r="42" spans="4:18" x14ac:dyDescent="0.2">
+      <c r="D42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E42" s="7">
+        <v>0.25269392868775853</v>
+      </c>
+      <c r="F42" s="6">
+        <v>1.0683211390291756</v>
+      </c>
+      <c r="G42" s="8">
+        <v>2.0324009774685443</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A15:E44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A14" workbookViewId="0">
       <selection activeCell="C29" sqref="C29:E34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20.83203125" customWidth="1"/>
     <col min="2" max="2" width="13.33203125" customWidth="1"/>
     <col min="3" max="3" width="22.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>8</v>
       </c>
@@ -2320,7 +4262,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>3</v>
       </c>
@@ -2334,7 +4276,7 @@
         <v>6.123333333333334</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>4</v>
       </c>
@@ -2348,7 +4290,7 @@
         <v>5.831666666666667</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>9</v>
       </c>
@@ -2362,7 +4304,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>3</v>
       </c>
@@ -2376,7 +4318,7 @@
         <v>7.6623176070363355E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>4</v>
       </c>
@@ -2390,7 +4332,7 @@
         <v>0.14738649116447722</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C28" t="s">
         <v>0</v>
       </c>
@@ -2401,7 +4343,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B29" s="2" t="s">
         <v>3</v>
       </c>
@@ -2415,7 +4357,7 @@
         <v>6.3</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B30" s="2" t="s">
         <v>3</v>
       </c>
@@ -2429,7 +4371,7 @@
         <v>5.86</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B31" s="2" t="s">
         <v>3</v>
       </c>
@@ -2443,7 +4385,7 @@
         <v>6.01</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B32" s="2" t="s">
         <v>3</v>
       </c>
@@ -2457,7 +4399,7 @@
         <v>6.37</v>
       </c>
     </row>
-    <row r="33" spans="2:5">
+    <row r="33" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B33" s="2" t="s">
         <v>3</v>
       </c>
@@ -2471,7 +4413,7 @@
         <v>6.12</v>
       </c>
     </row>
-    <row r="34" spans="2:5">
+    <row r="34" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B34" s="2" t="s">
         <v>3</v>
       </c>
@@ -2485,7 +4427,7 @@
         <v>6.08</v>
       </c>
     </row>
-    <row r="38" spans="2:5">
+    <row r="38" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C38" t="s">
         <v>0</v>
       </c>
@@ -2496,7 +4438,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="2:5">
+    <row r="39" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B39" s="3" t="s">
         <v>4</v>
       </c>
@@ -2510,7 +4452,7 @@
         <v>6.07</v>
       </c>
     </row>
-    <row r="40" spans="2:5">
+    <row r="40" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B40" s="3" t="s">
         <v>4</v>
       </c>
@@ -2524,7 +4466,7 @@
         <v>6.3</v>
       </c>
     </row>
-    <row r="41" spans="2:5">
+    <row r="41" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B41" s="3" t="s">
         <v>4</v>
       </c>
@@ -2538,7 +4480,7 @@
         <v>5.24</v>
       </c>
     </row>
-    <row r="42" spans="2:5">
+    <row r="42" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B42" s="3" t="s">
         <v>4</v>
       </c>
@@ -2552,7 +4494,7 @@
         <v>5.68</v>
       </c>
     </row>
-    <row r="43" spans="2:5">
+    <row r="43" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B43" s="3" t="s">
         <v>4</v>
       </c>
@@ -2566,7 +4508,7 @@
         <v>5.82</v>
       </c>
     </row>
-    <row r="44" spans="2:5">
+    <row r="44" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B44" s="3" t="s">
         <v>4</v>
       </c>
@@ -2583,10 +4525,5 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>